--- a/output/service.lua_ms.json/gate.xlsx
+++ b/output/service.lua_ms.json/gate.xlsx
@@ -470,34 +470,34 @@
     <row customHeight="1" ht="15" r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>2024-04-15 09:49:08.977</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>warning</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Game2GateServiceChannel</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Heartbeat ack  elapsed 10s</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Game2GateServiceChannel.go:226</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="15" r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-04-15 09:49:08.977</t>
+          <t>2024-04-15 09:49:18.959</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -524,7 +524,7 @@
     <row customHeight="1" ht="15" r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-04-15 09:49:18.959</t>
+          <t>2024-04-15 10:08:11.343</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -539,7 +539,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 10s</t>
+          <t>Heartbeat ack 0-game0 elapsed 1.108524061s</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -551,7 +551,7 @@
     <row customHeight="1" ht="15" r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-04-15 10:08:11.343</t>
+          <t>2024-04-15 10:10:54.630</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Heartbeat ack 0-game0 elapsed 1.108524061s</t>
+          <t>Heartbeat ack  elapsed 3.65805738s</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -578,7 +578,7 @@
     <row customHeight="1" ht="15" r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-04-15 10:10:54.630</t>
+          <t>2024-04-15 10:11:01.449</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 3.65805738s</t>
+          <t>Heartbeat ack  elapsed 10s</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 10s</t>
+          <t>Heartbeat ack  elapsed 11.171016419s</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -632,7 +632,7 @@
     <row customHeight="1" ht="15" r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:01.449</t>
+          <t>2024-04-15 10:11:06.093</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 11.171016419s</t>
+          <t>Heartbeat ack  elapsed 4.644114902s</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -659,7 +659,7 @@
     <row customHeight="1" ht="15" r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:06.093</t>
+          <t>2024-04-15 10:11:01.449</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -674,7 +674,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 4.644114902s</t>
+          <t>Heartbeat ack 100-game0 elapsed 10s</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -686,7 +686,7 @@
     <row customHeight="1" ht="15" r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:01.449</t>
+          <t>2024-04-15 10:11:18.414</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -713,7 +713,7 @@
     <row customHeight="1" ht="15" r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:18.414</t>
+          <t>2024-04-15 10:11:04.663</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Heartbeat ack 100-game0 elapsed 10s</t>
+          <t>Heartbeat ack  elapsed 14.38531637s</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -740,7 +740,7 @@
     <row customHeight="1" ht="15" r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:04.663</t>
+          <t>2024-04-15 10:11:19.967</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 14.38531637s</t>
+          <t>Heartbeat ack  elapsed 18.517725742s</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -767,7 +767,7 @@
     <row customHeight="1" ht="15" r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:19.967</t>
+          <t>2024-04-15 10:11:04.663</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 18.517725742s</t>
+          <t>Heartbeat ack  elapsed 3.214135993s</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -794,7 +794,7 @@
     <row customHeight="1" ht="15" r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:04.663</t>
+          <t>2024-04-15 10:11:20.505</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 3.214135993s</t>
+          <t>Heartbeat ack  elapsed 9.909413361s</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -821,7 +821,7 @@
     <row customHeight="1" ht="15" r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:20.505</t>
+          <t>2024-04-15 10:11:04.663</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 9.909413361s</t>
+          <t>Heartbeat ack  elapsed 3.213944119s</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -848,7 +848,7 @@
     <row customHeight="1" ht="15" r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:04.663</t>
+          <t>2024-04-15 10:11:20.845</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 3.213944119s</t>
+          <t>Heartbeat ack  elapsed 13.428198627s</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -875,7 +875,7 @@
     <row customHeight="1" ht="15" r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:20.845</t>
+          <t>2024-04-15 10:11:04.663</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -890,7 +890,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 13.428198627s</t>
+          <t>Heartbeat ack  elapsed 3.214157991s</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -902,7 +902,7 @@
     <row customHeight="1" ht="15" r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:04.663</t>
+          <t>2024-04-15 10:11:21.027</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 3.214157991s</t>
+          <t>Heartbeat ack  elapsed 14.345252178s</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -929,7 +929,7 @@
     <row customHeight="1" ht="15" r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:21.027</t>
+          <t>2024-04-15 10:11:04.663</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 14.345252178s</t>
+          <t>Heartbeat ack  elapsed 3.214170651s</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -956,7 +956,7 @@
     <row customHeight="1" ht="15" r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:04.663</t>
+          <t>2024-04-15 10:11:21.457</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 3.214170651s</t>
+          <t>Heartbeat ack  elapsed 14.040492104s</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -983,7 +983,7 @@
     <row customHeight="1" ht="15" r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:21.457</t>
+          <t>2024-04-15 10:11:06.013</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 14.040492104s</t>
+          <t>Heartbeat ack 100-game0 elapsed 15.735250065s</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row customHeight="1" ht="15" r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:06.013</t>
+          <t>2024-04-15 10:11:21.524</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Heartbeat ack 100-game0 elapsed 15.735250065s</t>
+          <t>Heartbeat ack 100-game0 elapsed 20.075134952s</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1037,7 +1037,7 @@
     <row customHeight="1" ht="15" r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:21.524</t>
+          <t>2024-04-15 10:11:21.536</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Heartbeat ack 100-game0 elapsed 20.075134952s</t>
+          <t>Heartbeat ack 100-game0 elapsed 3.121598115s</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row customHeight="1" ht="15" r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:21.536</t>
+          <t>2024-04-15 10:11:01.449</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Heartbeat ack 100-game0 elapsed 3.121598115s</t>
+          <t>Heartbeat ack  elapsed 10s</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1091,7 +1091,7 @@
     <row customHeight="1" ht="15" r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:01.449</t>
+          <t>2024-04-15 10:11:23.332</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1118,7 +1118,7 @@
     <row customHeight="1" ht="15" r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:23.332</t>
+          <t>2024-04-15 10:11:07.417</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1145,7 +1145,7 @@
     <row customHeight="1" ht="15" r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:07.417</t>
+          <t>2024-04-15 10:11:23.613</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1172,7 +1172,7 @@
     <row customHeight="1" ht="15" r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:23.613</t>
+          <t>2024-04-15 10:11:09.396</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1199,7 +1199,7 @@
     <row customHeight="1" ht="15" r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:09.396</t>
+          <t>2024-04-15 10:11:23.988</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1226,7 +1226,7 @@
     <row customHeight="1" ht="15" r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:23.988</t>
+          <t>2024-04-15 10:11:09.966</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 10s</t>
+          <t>Heartbeat ack 0-game0 elapsed 10s</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1253,7 +1253,7 @@
     <row customHeight="1" ht="15" r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:09.966</t>
+          <t>2024-04-15 10:11:24.015</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1280,7 +1280,7 @@
     <row customHeight="1" ht="15" r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:24.015</t>
+          <t>2024-04-15 10:11:10.374</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Heartbeat ack 0-game0 elapsed 10s</t>
+          <t>Heartbeat ack  elapsed 10s</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1307,7 +1307,7 @@
     <row customHeight="1" ht="15" r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:10.374</t>
+          <t>2024-04-15 10:11:24.052</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1334,7 +1334,7 @@
     <row customHeight="1" ht="15" r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:24.052</t>
+          <t>2024-04-15 10:11:10.374</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 10s</t>
+          <t>Heartbeat ack  elapsed 1.014909222s</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1361,7 +1361,7 @@
     <row customHeight="1" ht="15" r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:10.374</t>
+          <t>2024-04-15 10:11:10.596</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 1.014909222s</t>
+          <t>Heartbeat ack  elapsed 10s</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1388,7 +1388,7 @@
     <row customHeight="1" ht="15" r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:10.596</t>
+          <t>2024-04-15 10:11:24.080</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1415,7 +1415,7 @@
     <row customHeight="1" ht="15" r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:24.080</t>
+          <t>2024-04-15 10:11:01.449</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1442,7 +1442,7 @@
     <row customHeight="1" ht="15" r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:01.449</t>
+          <t>2024-04-15 10:11:24.126</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1469,7 +1469,7 @@
     <row customHeight="1" ht="15" r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:24.126</t>
+          <t>2024-04-15 10:11:20.253</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 10s</t>
+          <t>Heartbeat ack 0-game0 elapsed 18.803654122s</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1496,7 +1496,7 @@
     <row customHeight="1" ht="15" r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:20.253</t>
+          <t>2024-04-15 10:11:24.167</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Heartbeat ack 0-game0 elapsed 18.803654122s</t>
+          <t>Heartbeat ack 0-game0 elapsed 14.20058939s</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1523,7 +1523,7 @@
     <row customHeight="1" ht="15" r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:24.167</t>
+          <t>2024-04-15 10:11:04.663</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Heartbeat ack 0-game0 elapsed 14.20058939s</t>
+          <t>Heartbeat ack  elapsed 3.213941464s</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1550,7 +1550,7 @@
     <row customHeight="1" ht="15" r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:04.663</t>
+          <t>2024-04-15 10:11:24.829</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 3.213941464s</t>
+          <t>Heartbeat ack  elapsed 14.45496806s</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1577,7 +1577,7 @@
     <row customHeight="1" ht="15" r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:24.829</t>
+          <t>2024-04-15 10:11:04.663</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 14.45496806s</t>
+          <t>Heartbeat ack  elapsed 3.214564129s</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1604,7 +1604,7 @@
     <row customHeight="1" ht="15" r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:04.663</t>
+          <t>2024-04-15 10:11:24.924</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 3.214564129s</t>
+          <t>Heartbeat ack  elapsed 11.956668761s</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1631,7 +1631,7 @@
     <row customHeight="1" ht="15" r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:24.924</t>
+          <t>2024-04-15 10:11:06.681</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 11.956668761s</t>
+          <t>Heartbeat ack  elapsed 10s</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1658,7 +1658,7 @@
     <row customHeight="1" ht="15" r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:06.681</t>
+          <t>2024-04-15 10:11:24.951</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1685,7 +1685,7 @@
     <row customHeight="1" ht="15" r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:24.951</t>
+          <t>2024-04-15 10:11:09.359</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1712,7 +1712,7 @@
     <row customHeight="1" ht="15" r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:09.359</t>
+          <t>2024-04-15 10:11:24.998</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1739,7 +1739,7 @@
     <row customHeight="1" ht="15" r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:24.998</t>
+          <t>2024-04-15 10:11:10.330</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1766,7 +1766,7 @@
     <row customHeight="1" ht="15" r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:10.330</t>
+          <t>2024-04-15 10:11:25.141</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1793,7 +1793,7 @@
     <row customHeight="1" ht="15" r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:25.141</t>
+          <t>2024-04-15 10:11:12.967</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1820,7 +1820,7 @@
     <row customHeight="1" ht="15" r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:12.967</t>
+          <t>2024-04-15 10:11:25.174</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1847,7 +1847,7 @@
     <row customHeight="1" ht="15" r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:25.174</t>
+          <t>2024-04-15 10:11:04.663</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 10s</t>
+          <t>Heartbeat ack  elapsed 3.213916434s</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1874,7 +1874,7 @@
     <row customHeight="1" ht="15" r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:04.663</t>
+          <t>2024-04-15 10:11:25.252</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 3.213916434s</t>
+          <t>Heartbeat ack  elapsed 14.877399171s</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 14.877399171s</t>
+          <t>Heartbeat ack  elapsed 1.199884719s</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row customHeight="1" ht="15" r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:25.252</t>
+          <t>2024-04-15 10:11:07.417</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 1.199884719s</t>
+          <t>Heartbeat ack  elapsed 10s</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1955,7 +1955,7 @@
     <row customHeight="1" ht="15" r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:07.417</t>
+          <t>2024-04-15 10:11:25.278</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1982,7 +1982,7 @@
     <row customHeight="1" ht="15" r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:25.278</t>
+          <t>2024-04-15 10:11:10.374</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2009,7 +2009,7 @@
     <row customHeight="1" ht="15" r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:10.374</t>
+          <t>2024-04-15 10:11:25.321</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2036,7 +2036,7 @@
     <row customHeight="1" ht="15" r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:25.321</t>
+          <t>2024-04-15 10:11:04.663</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 10s</t>
+          <t>Heartbeat ack  elapsed 3.214142798s</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2063,7 +2063,7 @@
     <row customHeight="1" ht="15" r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:04.663</t>
+          <t>2024-04-15 10:11:25.378</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 3.214142798s</t>
+          <t>Heartbeat ack  elapsed 15.982594978s</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2090,7 +2090,7 @@
     <row customHeight="1" ht="15" r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:25.378</t>
+          <t>2024-04-15 10:11:25.474</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 15.982594978s</t>
+          <t>Heartbeat ack  elapsed 1.486748683s</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2117,7 +2117,7 @@
     <row customHeight="1" ht="15" r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:25.474</t>
+          <t>2024-04-15 10:11:04.663</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 1.486748683s</t>
+          <t>Heartbeat ack  elapsed 3.214061038s</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2144,7 +2144,7 @@
     <row customHeight="1" ht="15" r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:04.663</t>
+          <t>2024-04-15 10:11:26.825</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 3.214061038s</t>
+          <t>Heartbeat ack  elapsed 16.495124482s</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 16.495124482s</t>
+          <t>Heartbeat ack  elapsed 1.684478047s</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2198,7 +2198,7 @@
     <row customHeight="1" ht="15" r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:26.825</t>
+          <t>2024-04-15 10:11:06.681</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 1.684478047s</t>
+          <t>Heartbeat ack  elapsed 5.232359009s</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2225,7 +2225,7 @@
     <row customHeight="1" ht="15" r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:06.681</t>
+          <t>2024-04-15 10:11:26.887</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 5.232359009s</t>
+          <t>Heartbeat ack  elapsed 17.491608784s</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2252,7 +2252,7 @@
     <row customHeight="1" ht="15" r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:26.887</t>
+          <t>2024-04-15 10:11:09.396</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 17.491608784s</t>
+          <t>Heartbeat ack  elapsed 10s</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2279,7 +2279,7 @@
     <row customHeight="1" ht="15" r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:09.396</t>
+          <t>2024-04-15 10:11:27.088</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2306,7 +2306,7 @@
     <row customHeight="1" ht="15" r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:27.088</t>
+          <t>2024-04-15 10:11:26.914</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2333,7 +2333,7 @@
     <row customHeight="1" ht="15" r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:26.914</t>
+          <t>2024-04-15 10:11:27.219</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2360,7 +2360,7 @@
     <row customHeight="1" ht="15" r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:27.219</t>
+          <t>2024-04-15 10:11:27.369</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2387,7 +2387,7 @@
     <row customHeight="1" ht="15" r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:27.369</t>
+          <t>2024-04-15 10:11:28.611</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2402,7 +2402,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 10s</t>
+          <t>Heartbeat ack  elapsed 3.333060476s</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2414,7 +2414,7 @@
     <row customHeight="1" ht="15" r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:28.611</t>
+          <t>2024-04-15 10:11:29.081</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 3.333060476s</t>
+          <t>Heartbeat ack  elapsed 1.861744364s</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2441,7 +2441,7 @@
     <row customHeight="1" ht="15" r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:29.081</t>
+          <t>2024-04-15 10:11:28.972</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 1.861744364s</t>
+          <t>Heartbeat ack  elapsed 10s</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2468,7 +2468,7 @@
     <row customHeight="1" ht="15" r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:28.972</t>
+          <t>2024-04-15 10:11:28.633</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2495,7 +2495,7 @@
     <row customHeight="1" ht="15" r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:28.633</t>
+          <t>2024-04-15 10:11:29.432</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2522,7 +2522,7 @@
     <row customHeight="1" ht="15" r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:29.432</t>
+          <t>2024-04-15 10:11:30.113</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2549,7 +2549,7 @@
     <row customHeight="1" ht="15" r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:30.113</t>
+          <t>2024-04-15 10:11:31.178</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2576,7 +2576,7 @@
     <row customHeight="1" ht="15" r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:31.178</t>
+          <t>2024-04-15 10:11:36.907</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2603,7 +2603,7 @@
     <row customHeight="1" ht="15" r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:36.907</t>
+          <t>2024-04-15 10:11:37.370</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2630,7 +2630,7 @@
     <row customHeight="1" ht="15" r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:37.370</t>
+          <t>2024-04-15 10:11:38.627</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2657,7 +2657,7 @@
     <row customHeight="1" ht="15" r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:38.627</t>
+          <t>2024-04-15 10:11:38.958</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2684,7 +2684,7 @@
     <row customHeight="1" ht="15" r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:38.958</t>
+          <t>2024-04-15 10:11:39.422</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2711,7 +2711,7 @@
     <row customHeight="1" ht="15" r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:39.422</t>
+          <t>2024-04-15 10:11:40.125</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2738,7 +2738,7 @@
     <row customHeight="1" ht="15" r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:40.125</t>
+          <t>2024-04-15 10:11:41.179</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2765,7 +2765,7 @@
     <row customHeight="1" ht="15" r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:41.179</t>
+          <t>2024-04-15 10:11:47.369</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row customHeight="1" ht="15" r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:47.369</t>
+          <t>2024-04-15 10:11:50.114</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2819,27 +2819,27 @@
     <row customHeight="1" ht="15" r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2024-04-15 10:11:50.114</t>
+          <t>null</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>warning</t>
+          <t>null</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Game2GateServiceChannel</t>
+          <t>null</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Heartbeat ack  elapsed 10s</t>
+          <t>null</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Game2GateServiceChannel.go:226</t>
+          <t>null</t>
         </is>
       </c>
     </row>
